--- a/xlsx/nor_oda_ukraine_sectors_oneyear.xlsx
+++ b/xlsx/nor_oda_ukraine_sectors_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for landspesifisert bistand til Ukraina fordelt på sektorer, 2023. Prosentfordeling</t>
+          <t>Arkfane Figurdata viser data for landspesifisert bistand til Ukraina fordelt på sektorer, 2024. Prosentfordeling</t>
         </is>
       </c>
     </row>
@@ -424,19 +424,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.3945274579086112</v>
+        <v>0.4077883561001183</v>
       </c>
       <c r="C2">
-        <v>0.3945274579086112</v>
+        <v>0.4077883561001183</v>
       </c>
       <c r="D2">
-        <v>0.1972637289543056</v>
+        <v>0.2038941780500592</v>
       </c>
       <c r="E2">
-        <v>1.239444563405149</v>
+        <v>1.28110490374359</v>
       </c>
       <c r="F2">
-        <v>0.3945274579086112</v>
+        <v>0.4077883561001183</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +446,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2815541186357959</v>
+        <v>0.2744666069375443</v>
       </c>
       <c r="C3">
-        <v>0.676081576544407</v>
+        <v>0.6822549630376626</v>
       </c>
       <c r="D3">
-        <v>0.5353045172265091</v>
+        <v>0.5450216595688905</v>
       </c>
       <c r="E3">
-        <v>3.363417477504464</v>
+        <v>3.424472083497887</v>
       </c>
       <c r="F3">
-        <v>0.2815541186357959</v>
+        <v>0.2744666069375443</v>
       </c>
     </row>
     <row r="4">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2420569052587388</v>
+        <v>0.238777293109668</v>
       </c>
       <c r="C4">
-        <v>0.9181384818031459</v>
+        <v>0.9210322561473305</v>
       </c>
       <c r="D4">
-        <v>0.7971100291737765</v>
+        <v>0.8016436095924966</v>
       </c>
       <c r="E4">
-        <v>5.008390023510164</v>
+        <v>5.036875349385983</v>
       </c>
       <c r="F4">
-        <v>0.2420569052587388</v>
+        <v>0.238777293109668</v>
       </c>
     </row>
     <row r="5">
@@ -490,19 +490,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.03761130605906247</v>
+        <v>0.04400193266316896</v>
       </c>
       <c r="C5">
-        <v>0.9557497878622084</v>
+        <v>0.9650341888104995</v>
       </c>
       <c r="D5">
-        <v>0.9369441348326772</v>
+        <v>0.9430332224789151</v>
       </c>
       <c r="E5">
-        <v>5.886993621628767</v>
+        <v>5.925252487661737</v>
       </c>
       <c r="F5">
-        <v>0.03761130605906247</v>
+        <v>0.04400193266316896</v>
       </c>
     </row>
     <row r="6">
@@ -512,19 +512,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.03107265525923053</v>
+        <v>0.02973752642938719</v>
       </c>
       <c r="C6">
-        <v>0.986822443121439</v>
+        <v>0.9947717152398867</v>
       </c>
       <c r="D6">
-        <v>0.9712861154918236</v>
+        <v>0.9799029520251932</v>
       </c>
       <c r="E6">
-        <v>6.102770649925761</v>
+        <v>6.156911830626597</v>
       </c>
       <c r="F6">
-        <v>0.03107265525923053</v>
+        <v>0.02973752642938719</v>
       </c>
     </row>
     <row r="7">
@@ -534,16 +534,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.01317755687856112</v>
+        <v>0.005228284760113182</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.9934112215607195</v>
+        <v>0.9973858576199433</v>
       </c>
       <c r="E7">
-        <v>6.241786791297637</v>
+        <v>6.266760166186338</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_ukraine_sectors_oneyear.xlsx
+++ b/xlsx/nor_oda_ukraine_sectors_oneyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for landspesifisert bistand til Ukraina fordelt på sektorer, 2024. Prosentfordeling</t>
+          <t>Arkfane Figurdata inneholder data om norsk landspesifisert bistand til Ukraina fordelt på sektorer. 2024. Prosentfordeling</t>
         </is>
       </c>
     </row>
